--- a/data_processing_elements-NHS.xlsx
+++ b/data_processing_elements-NHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ca058780ebd4867/ProPASS/dpe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{EAFA0F5D-D41C-4C73-B15F-460B5AC822F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25D99BF-EA0C-46C2-927A-FA737703C22A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501507D8-006E-4A2B-B1E8-7222F678611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1392" windowWidth="23256" windowHeight="12456" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="460">
   <si>
     <t>index</t>
   </si>
@@ -970,12 +970,6 @@
     <t>items</t>
   </si>
   <si>
-    <t>Please confirm the date format</t>
-  </si>
-  <si>
-    <t>Please confirm/adjust/comment the recoding, we are not 100% sure to understand how the education system translate to the categories desired for harmonization.</t>
-  </si>
-  <si>
     <t>recode(1=0; 2=1; 3=1; 4=1; 5=1; ELSE=NA)</t>
   </si>
   <si>
@@ -1050,9 +1044,6 @@
 4=3-4 years vocational school/apprentice (upper secondary/sixth form college)
 5=College or university, less than four years
 6=College or university, four years or more</t>
-  </si>
-  <si>
-    <t>recode(1=0; 2=1; 3=1; 4=2; 5=3; 6=3; ELSE=NA)</t>
   </si>
   <si>
     <t>WorCu@NT4BLI</t>
@@ -1131,27 +1122,18 @@
     <t>Invitation constituency urbanity</t>
   </si>
   <si>
-    <t>Do you have a variable that could classify the living area of the participant (rural vs urban)</t>
-  </si>
-  <si>
     <t>Hei@NT4BLM</t>
   </si>
   <si>
     <t>ifelse(!is.na(Hei@NT4BLM), 2, NA)</t>
   </si>
   <si>
-    <t>Please confirm that the height was measured by a trained profesionnal</t>
-  </si>
-  <si>
     <t>Wei@NT4BLM</t>
   </si>
   <si>
     <t>ifelse(!is.na(Wei@NT4BLM), 2, NA)</t>
   </si>
   <si>
-    <t>Please confirm that the weight was measured by a trained profesionnal</t>
-  </si>
-  <si>
     <t>Bmi@NT4BLM</t>
   </si>
   <si>
@@ -1165,9 +1147,6 @@
   </si>
   <si>
     <t>ifelse(!is.na(CircWaist@NT4BLM), 2, NA)</t>
-  </si>
-  <si>
-    <t>Please confirm that the hwaist circ. was measured by a trained profesionnal</t>
   </si>
   <si>
     <t>BIAPbf@NT4BLM</t>
@@ -1623,6 +1602,15 @@
   </si>
   <si>
     <t>Wording specifies in the last six months.</t>
+  </si>
+  <si>
+    <t>recode(1=0; 2=1; 3=2; 4=2; 5=3; 6=3; ELSE=NA)</t>
+  </si>
+  <si>
+    <t>Do you have a variable that could classify the living area of the participant (rural vs urban). Please specify the format and categories of this variable</t>
+  </si>
+  <si>
+    <t>as.Date("23-Feb-2020", format = "%d-%b-%Y")</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1749,6 +1737,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2091,10 +2083,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -2209,7 +2201,7 @@
         <v>189</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="U2" s="3"/>
     </row>
@@ -2218,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -2236,23 +2228,30 @@
         <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>287</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="T3" s="16"/>
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
@@ -2260,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -2299,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
@@ -2317,13 +2316,13 @@
         <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>25</v>
@@ -2335,7 +2334,7 @@
         <v>43</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="U5" s="3"/>
     </row>
@@ -2344,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -2362,16 +2361,16 @@
         <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>25</v>
@@ -2383,11 +2382,9 @@
         <v>38</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>288</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="T6" s="16"/>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
@@ -2395,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>49</v>
@@ -2434,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>54</v>
@@ -2452,13 +2449,13 @@
         <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>25</v>
@@ -2479,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>60</v>
@@ -2497,16 +2494,16 @@
         <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>25</v>
@@ -2518,7 +2515,7 @@
         <v>38</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U9" s="3"/>
     </row>
@@ -2527,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>64</v>
@@ -2564,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>68</v>
@@ -2579,16 +2576,16 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>25</v>
@@ -2600,7 +2597,7 @@
         <v>204</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="U11" s="3"/>
     </row>
@@ -2609,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>71</v>
@@ -2648,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>75</v>
@@ -2666,16 +2663,16 @@
         <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>25</v>
@@ -2687,7 +2684,7 @@
         <v>38</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="U13" s="3"/>
     </row>
@@ -2696,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>79</v>
@@ -2735,7 +2732,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>83</v>
@@ -2753,19 +2750,19 @@
         <v>85</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>189</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="U15" s="3"/>
     </row>
@@ -2774,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>86</v>
@@ -2792,10 +2789,10 @@
         <v>88</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>25</v>
@@ -2816,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>89</v>
@@ -2846,11 +2843,9 @@
         <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>332</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="T17" s="16"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2858,7 +2853,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>92</v>
@@ -2876,10 +2871,10 @@
         <v>94</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>25</v>
@@ -2893,6 +2888,7 @@
       <c r="S18" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="T18" s="17"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
@@ -2900,7 +2896,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>95</v>
@@ -2930,11 +2926,9 @@
         <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>335</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="T19" s="16"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2942,7 +2936,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>97</v>
@@ -2960,10 +2954,10 @@
         <v>99</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>25</v>
@@ -2977,6 +2971,7 @@
       <c r="S20" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="T20" s="17"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2984,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>100</v>
@@ -3002,10 +2997,10 @@
         <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>25</v>
@@ -3019,6 +3014,7 @@
       <c r="S21" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="T21" s="17"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
@@ -3026,7 +3022,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>103</v>
@@ -3056,11 +3052,9 @@
         <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>341</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="T22" s="16"/>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3068,7 +3062,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>105</v>
@@ -3086,13 +3080,13 @@
         <v>107</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>25</v>
@@ -3113,7 +3107,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>108</v>
@@ -3128,13 +3122,13 @@
         <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>25</v>
@@ -3146,7 +3140,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="U24" s="3"/>
     </row>
@@ -3155,7 +3149,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>110</v>
@@ -3173,13 +3167,13 @@
         <v>113</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>102</v>
@@ -3194,7 +3188,7 @@
         <v>32</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="U25" s="3"/>
     </row>
@@ -3203,7 +3197,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>114</v>
@@ -3221,13 +3215,13 @@
         <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>102</v>
@@ -3242,7 +3236,7 @@
         <v>32</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="U26" s="3"/>
     </row>
@@ -3251,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>117</v>
@@ -3269,16 +3263,16 @@
         <v>119</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>25</v>
@@ -3299,7 +3293,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>120</v>
@@ -3338,7 +3332,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>123</v>
@@ -3356,16 +3350,16 @@
         <v>125</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>25</v>
@@ -3377,7 +3371,7 @@
         <v>38</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="U29" s="3"/>
     </row>
@@ -3386,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>126</v>
@@ -3404,13 +3398,13 @@
         <v>128</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>128</v>
@@ -3434,7 +3428,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>129</v>
@@ -3452,13 +3446,13 @@
         <v>131</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>131</v>
@@ -3482,7 +3476,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>132</v>
@@ -3500,13 +3494,13 @@
         <v>134</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>134</v>
@@ -3530,7 +3524,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>135</v>
@@ -3548,13 +3542,13 @@
         <v>134</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>134</v>
@@ -3578,7 +3572,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>137</v>
@@ -3617,7 +3611,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>139</v>
@@ -3635,16 +3629,16 @@
         <v>134</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>25</v>
@@ -3656,7 +3650,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="U35" s="3"/>
     </row>
@@ -3665,7 +3659,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>141</v>
@@ -3683,13 +3677,13 @@
         <v>134</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>134</v>
@@ -3713,7 +3707,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>143</v>
@@ -3731,13 +3725,13 @@
         <v>145</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>146</v>
@@ -3761,7 +3755,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>147</v>
@@ -3800,7 +3794,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>152</v>
@@ -3818,19 +3812,19 @@
         <v>155</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>25</v>
@@ -3842,7 +3836,7 @@
         <v>38</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="U39" s="3"/>
     </row>
@@ -3851,7 +3845,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>156</v>
@@ -3890,7 +3884,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>159</v>
@@ -3908,19 +3902,19 @@
         <v>155</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>25</v>
@@ -3932,7 +3926,7 @@
         <v>38</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="U41" s="3"/>
     </row>
@@ -3941,7 +3935,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>162</v>
@@ -3980,7 +3974,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>165</v>
@@ -3998,13 +3992,13 @@
         <v>168</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>168</v>
@@ -4028,7 +4022,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>169</v>
@@ -4046,19 +4040,19 @@
         <v>171</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>25</v>
@@ -4070,7 +4064,7 @@
         <v>38</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="U44" s="3"/>
     </row>
@@ -4079,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>172</v>
@@ -4097,7 +4091,7 @@
         <v>175</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>174</v>
@@ -4106,7 +4100,7 @@
         <v>173</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>25</v>
@@ -4118,7 +4112,7 @@
         <v>38</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="U45" s="3"/>
     </row>
@@ -4127,7 +4121,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>176</v>
@@ -4147,7 +4141,7 @@
         <v>178</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>174</v>
@@ -4156,7 +4150,7 @@
         <v>173</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
@@ -4169,7 +4163,7 @@
         <v>38</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="U46" s="3"/>
     </row>
@@ -4178,7 +4172,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>179</v>
@@ -4196,19 +4190,19 @@
         <v>181</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>25</v>
@@ -4220,7 +4214,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="U47" s="3"/>
     </row>
@@ -4229,7 +4223,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>182</v>
@@ -4247,16 +4241,16 @@
         <v>184</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>25</v>
@@ -4277,7 +4271,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>185</v>
@@ -4295,19 +4289,19 @@
         <v>188</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>25</v>
@@ -4319,7 +4313,7 @@
         <v>204</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4328,7 +4322,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>190</v>
@@ -4346,19 +4340,19 @@
         <v>188</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>25</v>
@@ -4370,7 +4364,7 @@
         <v>204</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="U50" s="3"/>
     </row>
@@ -4379,7 +4373,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>193</v>
@@ -4397,16 +4391,16 @@
         <v>188</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>25</v>
@@ -4427,7 +4421,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>195</v>
@@ -4466,7 +4460,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>198</v>
@@ -4484,16 +4478,16 @@
         <v>188</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>25</v>
@@ -4514,7 +4508,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>200</v>
@@ -4553,7 +4547,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>202</v>
@@ -4571,16 +4565,16 @@
         <v>188</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>25</v>
@@ -4601,7 +4595,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>205</v>
@@ -4619,16 +4613,16 @@
         <v>188</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>25</v>
@@ -4649,7 +4643,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>207</v>
@@ -4688,7 +4682,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>209</v>
@@ -4727,7 +4721,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>212</v>
@@ -4763,7 +4757,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>214</v>
@@ -4799,7 +4793,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>216</v>
@@ -4835,7 +4829,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>218</v>
@@ -4871,7 +4865,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>220</v>
@@ -4907,7 +4901,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>222</v>
@@ -4943,7 +4937,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>224</v>
@@ -4979,7 +4973,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>226</v>
@@ -5018,7 +5012,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>229</v>
@@ -5036,16 +5030,16 @@
         <v>231</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>25</v>
@@ -5066,7 +5060,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>232</v>
@@ -5084,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>25</v>
@@ -5102,7 +5096,7 @@
         <v>204</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="U68" s="3"/>
     </row>
@@ -5111,7 +5105,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>235</v>
@@ -5129,16 +5123,16 @@
         <v>237</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>58</v>
@@ -5159,7 +5153,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>238</v>
@@ -5177,16 +5171,16 @@
         <v>240</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>25</v>
@@ -5198,7 +5192,7 @@
         <v>38</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="U70" s="3"/>
     </row>
@@ -5207,7 +5201,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>241</v>
@@ -5246,7 +5240,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>243</v>
@@ -5285,7 +5279,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>245</v>
@@ -5324,7 +5318,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>249</v>
@@ -5342,16 +5336,16 @@
         <v>252</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>25</v>
@@ -5363,7 +5357,7 @@
         <v>38</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="U74" s="3"/>
     </row>
@@ -5372,7 +5366,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>253</v>
@@ -5411,7 +5405,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>257</v>
@@ -5429,13 +5423,13 @@
         <v>231</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>25</v>
@@ -5456,7 +5450,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>260</v>
@@ -5474,10 +5468,10 @@
         <v>263</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>25</v>
@@ -5489,7 +5483,7 @@
         <v>204</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="U77" s="3"/>
     </row>
@@ -5498,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>264</v>
@@ -5537,7 +5531,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>268</v>
@@ -5576,7 +5570,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>271</v>
@@ -5594,19 +5588,19 @@
         <v>188</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>25</v>
@@ -5618,7 +5612,7 @@
         <v>38</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="U80" s="3"/>
     </row>
@@ -5627,7 +5621,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>274</v>
@@ -5666,7 +5660,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>277</v>
@@ -5705,7 +5699,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>280</v>
@@ -5741,7 +5735,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>283</v>

--- a/data_processing_elements-NHS.xlsx
+++ b/data_processing_elements-NHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E33F95-AFA3-4832-8E8C-3A15C8538CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F38FF-0F81-42CC-ADE0-392EDD7B5986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processing_elements!$A$1:$U$84</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -997,9 +997,6 @@
     <t>NHS</t>
   </si>
   <si>
-    <t>Please provide ID variable</t>
-  </si>
-  <si>
     <t>Participation Date</t>
   </si>
   <si>
@@ -1383,9 +1380,6 @@
   </si>
   <si>
     <t>Do you have a variable that could classify the living area of the participant (rural vs urban). Please specify the format and categories of this variable</t>
-  </si>
-  <si>
-    <t>as.Date("23-Feb-2020", format = "%d-%b-%Y")</t>
   </si>
   <si>
     <t>Person-id</t>
@@ -1613,6 +1607,13 @@
   <si>
     <t xml:space="preserve">Participation Age
 </t>
+  </si>
+  <si>
+    <t>as.Date(PartDat_NT4BLQ1, format = "%d-%b-%Y")</t>
+  </si>
+  <si>
+    <t>Please provide ID variable
+Is it really the id variable name ?</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1742,15 +1743,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1772,7 +1774,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2091,38 +2093,38 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:K84"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="14"/>
-    <col min="8" max="8" width="8.5546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" style="14" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" style="14" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="14"/>
-    <col min="22" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="8.5703125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="13" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="25.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2187,650 +2189,650 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+    <row r="2" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="K2" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>296</v>
+      <c r="R2" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="N3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>400</v>
+      <c r="S3" s="13" t="s">
+        <v>460</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+    <row r="5" spans="1:21" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>417</v>
+      <c r="J5" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="M6" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="14" t="s">
-        <v>398</v>
+      <c r="S6" s="13" t="s">
+        <v>397</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="P7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" s="14" t="s">
+      <c r="R7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="K9" s="14" t="s">
+      <c r="J9" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="13" t="s">
         <v>288</v>
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>67</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="14" t="s">
+      <c r="R10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+    <row r="11" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>421</v>
+      <c r="J11" s="13" t="s">
+        <v>419</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="13" t="s">
         <v>203</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="F12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="14" t="s">
+      <c r="P12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="14" t="s">
+      <c r="R12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="F13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="P13" s="14" t="s">
+      <c r="K16" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -2841,78 +2843,78 @@
       </c>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="F17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="P17" s="14" t="s">
+      <c r="J17" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R17" s="14" t="s">
+      <c r="R17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="14" t="s">
-        <v>404</v>
+      <c r="S17" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="K18" s="14" t="s">
+      <c r="J18" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2923,78 +2925,78 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="F19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="P19" s="14" t="s">
+      <c r="J19" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="14" t="s">
-        <v>405</v>
+      <c r="S19" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="P20" s="14" t="s">
+      <c r="J20" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="P20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -3005,38 +3007,38 @@
       </c>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="P21" s="14" t="s">
+      <c r="J21" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="P21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="Q21" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -3047,450 +3049,450 @@
       </c>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="F22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="P22" s="14" t="s">
+      <c r="J22" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="P22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="14" t="s">
-        <v>406</v>
+      <c r="S22" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="72" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="P23" s="14" t="s">
+      <c r="K26" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="Q26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="R23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" ht="42" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" ht="42" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="K27" s="14" t="s">
+      <c r="J27" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="O27" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="O27" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S27" s="14" t="s">
+      <c r="S27" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="14" t="s">
+      <c r="P28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S28" s="14" t="s">
+      <c r="R28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S28" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="J29" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="P29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="P29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>328</v>
-      </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="K30" s="14" t="s">
+      <c r="J30" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="Q30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="R30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="S30" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>434</v>
+      <c r="J31" s="13" t="s">
+        <v>432</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L31" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>292</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="Q31" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -3501,44 +3503,44 @@
       </c>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="K32" s="14" t="s">
+      <c r="J32" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="14" t="s">
+      <c r="Q32" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -3549,44 +3551,44 @@
       </c>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>436</v>
+      <c r="J33" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q33" s="14" t="s">
+      <c r="Q33" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R33" s="1" t="s">
@@ -3597,131 +3599,131 @@
       </c>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q34" s="14" t="s">
+      <c r="P34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S34" s="14" t="s">
+      <c r="R34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S34" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+    <row r="35" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>134</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K35" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="P35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="14" t="s">
+      <c r="Q35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R35" s="14" t="s">
+      <c r="R35" s="13" t="s">
         <v>32</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="K36" s="14" t="s">
+      <c r="J36" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="14" t="s">
+      <c r="Q36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R36" s="1" t="s">
@@ -3732,44 +3734,44 @@
       </c>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>36</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="14" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="K37" s="14" t="s">
+      <c r="J37" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="14" t="s">
+      <c r="Q37" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -3780,263 +3782,263 @@
       </c>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="14" t="s">
+      <c r="F38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P38" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q38" s="14" t="s">
+      <c r="P38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R38" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S38" s="14" t="s">
+      <c r="R38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="15" t="s">
+      <c r="F39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="J39" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="K39" s="14" t="s">
+      <c r="J39" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="O39" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="O39" s="14" t="s">
+      <c r="P39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="P39" s="14" t="s">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="P41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Q41" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R39" s="14" t="s">
+      <c r="R41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
-        <v>39</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q40" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>40</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="O41" s="14" t="s">
+      <c r="S41" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="P41" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>346</v>
-      </c>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P42" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q42" s="14" t="s">
+      <c r="P42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R42" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S42" s="14" t="s">
+      <c r="R42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="K43" s="14" t="s">
+      <c r="J43" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="P43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="14" t="s">
+      <c r="Q43" s="13" t="s">
         <v>26</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -4047,90 +4049,90 @@
       </c>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="15" t="s">
+      <c r="F44" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="J44" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="K44" s="14" t="s">
+      <c r="J44" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="P44" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="14" t="s">
+      <c r="Q44" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R44" s="14" t="s">
+      <c r="R44" s="13" t="s">
         <v>38</v>
       </c>
       <c r="S44" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
-        <v>44</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>25</v>
@@ -4142,15 +4144,15 @@
         <v>38</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>295</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4170,17 +4172,17 @@
       <c r="I46" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="K46" s="14" t="s">
+      <c r="J46" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="L46" s="13" t="s">
         <v>173</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
@@ -4193,168 +4195,168 @@
         <v>38</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K47" s="14" t="s">
+      <c r="J47" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="N47" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="O47" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="O47" s="14" t="s">
+      <c r="P47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="K48" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="P47" s="14" t="s">
+      <c r="L48" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="P48" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q47" s="14" t="s">
+      <c r="Q48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21" ht="186" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="R47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
-        <v>47</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q48" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" ht="180" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
-        <v>48</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>186</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K49" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="M49" s="15" t="s">
+      <c r="O49" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="O49" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="P49" s="14" t="s">
+      <c r="P49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q49" s="14" t="s">
+      <c r="Q49" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="14" t="s">
+      <c r="R49" s="13" t="s">
         <v>203</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
+    <row r="50" spans="1:21" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>189</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4363,1372 +4365,1372 @@
       <c r="E50" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K50" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="O50" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="O50" s="14" t="s">
+      <c r="P50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="L51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="P51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R50" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="S50" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
-        <v>50</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="P51" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q51" s="14" t="s">
+      <c r="Q51" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R51" s="14" t="s">
+      <c r="R51" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S51" s="14" t="s">
+      <c r="S51" s="13" t="s">
         <v>43</v>
       </c>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I52" s="15" t="s">
+      <c r="F52" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="14" t="s">
+      <c r="J52" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P52" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q52" s="14" t="s">
+      <c r="P52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R52" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S52" s="14" t="s">
+      <c r="R52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S52" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C53" s="14" t="s">
+      <c r="B53" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="K53" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="P53" s="14" t="s">
+      <c r="K56" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="P56" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q53" s="14" t="s">
+      <c r="Q56" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R53" s="14" t="s">
+      <c r="R56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S53" s="14" t="s">
+      <c r="S56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I54" s="15" t="s">
+      <c r="P57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P54" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q54" s="14" t="s">
+      <c r="P58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R54" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S54" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
-        <v>54</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55" s="14" t="s">
+      <c r="R58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="P55" s="14" t="s">
+      <c r="K67" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="P67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="14" t="s">
+      <c r="Q67" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R55" s="14" t="s">
+      <c r="R67" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S55" s="14" t="s">
+      <c r="S67" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
-        <v>55</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L56" s="1" t="s">
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="K68" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="M56" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="P56" s="14" t="s">
+      <c r="L68" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="P68" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q56" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R56" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S56" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
-        <v>56</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q57" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
-        <v>57</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q58" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="14">
-        <v>58</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q59" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R59" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S59" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="14">
-        <v>59</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P60" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q60" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R60" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S60" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
-        <v>60</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q61" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R61" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S61" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
-        <v>61</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q62" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R62" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S62" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="14">
-        <v>62</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P63" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q63" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R63" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S63" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
-        <v>63</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P64" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q64" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R64" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S64" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="14">
-        <v>64</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q65" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R65" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S65" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="14">
-        <v>65</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P66" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q66" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R66" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S66" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="14">
-        <v>66</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="P67" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R67" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S67" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="14">
-        <v>67</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="P68" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="14" t="s">
+      <c r="Q68" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R68" s="14" t="s">
+      <c r="R68" s="13" t="s">
         <v>203</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="14">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
         <v>68</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" s="14" t="s">
+      <c r="B69" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q69" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q71" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q73" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="P69" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q69" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="R69" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S69" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="14">
-        <v>69</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J70" s="14" t="s">
+      <c r="K74" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J76" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="P70" s="14" t="s">
+      <c r="K76" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="P76" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q70" s="14" t="s">
+      <c r="Q76" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S76" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:21" ht="327.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R70" s="14" t="s">
+      <c r="R77" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="S77" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q79" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="O80" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R80" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="S70" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="14">
-        <v>70</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J71" s="14" t="s">
+      <c r="S80" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J81" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P71" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q71" s="14" t="s">
+      <c r="P81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q81" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R71" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S71" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="14">
-        <v>71</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J72" s="14" t="s">
+      <c r="R81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J82" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P72" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q72" s="14" t="s">
+      <c r="P82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q82" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R72" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S72" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="14">
-        <v>72</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I73" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P73" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q73" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R73" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S73" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>73</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I74" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="P74" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q74" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R74" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="14">
-        <v>74</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I75" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="J75" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P75" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q75" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R75" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S75" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="14">
-        <v>75</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="P76" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q76" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R76" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S76" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="1:21" ht="317.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A77" s="14">
-        <v>76</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="J77" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="P77" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q77" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R77" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="S77" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="14">
-        <v>77</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I78" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J78" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P78" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q78" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R78" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S78" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="14">
-        <v>78</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I79" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="J79" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P79" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q79" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R79" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S79" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="14">
-        <v>79</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I80" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J80" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="K80" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="P80" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q80" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R80" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="S80" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="14">
-        <v>80</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J81" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P81" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q81" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R81" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S81" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="14">
-        <v>81</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J82" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P82" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q82" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R82" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S82" s="14" t="s">
+      <c r="R82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S82" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="14">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
         <v>82</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>295</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5737,64 +5739,64 @@
       <c r="D83" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="F83" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J83" s="14" t="s">
+      <c r="F83" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P83" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q83" s="14" t="s">
+      <c r="P83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q83" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R83" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S83" s="14" t="s">
+      <c r="R83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S83" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="14">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
         <v>83</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>295</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="13" t="s">
         <v>36</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J84" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P84" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q84" s="14" t="s">
+      <c r="P84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q84" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R84" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S84" s="14" t="s">
+      <c r="R84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S84" s="13" t="s">
         <v>58</v>
       </c>
       <c r="U84" s="1"/>

--- a/data_processing_elements-NHS.xlsx
+++ b/data_processing_elements-NHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F38FF-0F81-42CC-ADE0-392EDD7B5986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA4BCA-9431-4EBE-9081-F31DD6287889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processing_elements!$A$1:$U$84</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1403,12 +1403,6 @@
     <t>ifelse(!is.na(BIAPbf_NT4BLM), "Bioelectrical impedance measurement (InBody 770)", NA)</t>
   </si>
   <si>
-    <t>round(rowMeans(select(., BPSyst1_NT4BLM, BPSyst2_NT4BLM, BPSyst3_NT4BLM), na.rm=TRUE), 2)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., BPDias1_NT4BLM, BPDias2_NT4BLM, BPDias3_NT4BLM), na.rm=TRUE), 2)</t>
-  </si>
-  <si>
     <t>round(SeChol_NT4BLM - SeHDLChol_NT4BLM - (SeTrig_NT4BLM/2.2), 2)</t>
   </si>
   <si>
@@ -1614,6 +1608,14 @@
   <si>
     <t>Please provide ID variable
 Is it really the id variable name ?</t>
+  </si>
+  <si>
+    <t>case_when(is.na(BPSyst1_NT4BLM) &amp; is.na(BPSyst2_NT4BLM) &amp; is.na(BPSyst3_NT4BLM) ~ NA;
+ELSE ~ round(rowMeans(select(., BPSyst1_NT4BLM, BPSyst2_NT4BLM, BPSyst3_NT4BLM), na.rm=TRUE), 2))</t>
+  </si>
+  <si>
+    <t>case_when(is.na(BPDias1_NT4BLM) &amp; is.na(BPDias2_NT4BLM) &amp; is.na(BPDias3_NT4BLM) ~ NA;
+ELSE ~ round(rowMeans(select(., BPDias1_NT4BLM, BPDias2_NT4BLM, BPDias3_NT4BLM), na.rm=TRUE), 2))</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1754,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1774,7 +1776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2096,10 +2098,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="13" customWidth="1"/>
@@ -2119,7 +2121,7 @@
     <col min="16" max="16" width="12.7109375" style="13" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="13" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" style="13" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="71.5703125" style="13" customWidth="1"/>
     <col min="20" max="20" width="25.5703125" style="13" customWidth="1"/>
     <col min="21" max="21" width="25.28515625" style="13" customWidth="1"/>
   </cols>
@@ -2227,7 +2229,7 @@
         <v>401</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -2254,7 +2256,7 @@
         <v>31</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>296</v>
@@ -2275,7 +2277,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2342,10 +2344,10 @@
         <v>42</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>299</v>
@@ -2360,7 +2362,7 @@
         <v>32</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -2387,7 +2389,7 @@
         <v>47</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>289</v>
@@ -2475,7 +2477,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>302</v>
@@ -2520,7 +2522,7 @@
         <v>63</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>304</v>
@@ -2602,7 +2604,7 @@
         <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>307</v>
@@ -2623,7 +2625,7 @@
         <v>203</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U11" s="1"/>
     </row>
@@ -2689,7 +2691,7 @@
         <v>78</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>290</v>
@@ -2776,7 +2778,7 @@
         <v>85</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>312</v>
@@ -2824,7 +2826,7 @@
         <v>88</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>291</v>
@@ -2866,7 +2868,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>25</v>
@@ -2906,7 +2908,7 @@
         <v>94</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>294</v>
@@ -2948,7 +2950,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>25</v>
@@ -2988,7 +2990,7 @@
         <v>99</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>313</v>
@@ -3030,7 +3032,7 @@
         <v>88</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>314</v>
@@ -3072,7 +3074,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P22" s="13" t="s">
         <v>25</v>
@@ -3112,7 +3114,7 @@
         <v>107</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>315</v>
@@ -3154,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>315</v>
@@ -3176,7 +3178,7 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>113</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>317</v>
@@ -3217,10 +3219,10 @@
         <v>48</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>406</v>
+        <v>203</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="U25" s="1"/>
     </row>
@@ -3247,7 +3249,7 @@
         <v>113</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>319</v>
@@ -3265,10 +3267,10 @@
         <v>48</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>407</v>
+        <v>203</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="U26" s="1"/>
     </row>
@@ -3295,7 +3297,7 @@
         <v>119</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>321</v>
@@ -3382,7 +3384,7 @@
         <v>125</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>324</v>
@@ -3430,7 +3432,7 @@
         <v>128</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>328</v>
@@ -3478,7 +3480,7 @@
         <v>131</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>330</v>
@@ -3526,7 +3528,7 @@
         <v>134</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>331</v>
@@ -3574,7 +3576,7 @@
         <v>134</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>333</v>
@@ -3661,7 +3663,7 @@
         <v>134</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>335</v>
@@ -3682,7 +3684,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="U35" s="1"/>
     </row>
@@ -3709,7 +3711,7 @@
         <v>134</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>337</v>
@@ -3757,7 +3759,7 @@
         <v>145</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>339</v>
@@ -3844,7 +3846,7 @@
         <v>155</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>341</v>
@@ -3934,7 +3936,7 @@
         <v>155</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>346</v>
@@ -4024,7 +4026,7 @@
         <v>168</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K43" s="13" t="s">
         <v>348</v>
@@ -4072,7 +4074,7 @@
         <v>171</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>350</v>
@@ -4123,7 +4125,7 @@
         <v>175</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>174</v>
@@ -4173,7 +4175,7 @@
         <v>178</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>174</v>
@@ -4222,7 +4224,7 @@
         <v>181</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>357</v>
@@ -4246,7 +4248,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U47" s="1"/>
     </row>
@@ -4273,7 +4275,7 @@
         <v>184</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>361</v>
@@ -4321,7 +4323,7 @@
         <v>188</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>364</v>
@@ -4345,7 +4347,7 @@
         <v>203</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U49" s="1"/>
     </row>
@@ -4372,7 +4374,7 @@
         <v>188</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>368</v>
@@ -4396,7 +4398,7 @@
         <v>203</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U50" s="1"/>
     </row>
@@ -4423,7 +4425,7 @@
         <v>188</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>371</v>
@@ -4510,7 +4512,7 @@
         <v>188</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K53" s="13" t="s">
         <v>373</v>
@@ -4597,7 +4599,7 @@
         <v>188</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>375</v>
@@ -4645,7 +4647,7 @@
         <v>188</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>377</v>
@@ -5062,7 +5064,7 @@
         <v>230</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K67" s="13" t="s">
         <v>379</v>
@@ -5110,7 +5112,7 @@
         <v>233</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K68" s="13" t="s">
         <v>379</v>
@@ -5128,7 +5130,7 @@
         <v>203</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U68" s="1"/>
     </row>
@@ -5155,7 +5157,7 @@
         <v>236</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>382</v>
@@ -5203,7 +5205,7 @@
         <v>239</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>385</v>
@@ -5368,7 +5370,7 @@
         <v>251</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>389</v>
@@ -5455,7 +5457,7 @@
         <v>230</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K76" s="13" t="s">
         <v>391</v>
@@ -5500,7 +5502,7 @@
         <v>262</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K77" s="13" t="s">
         <v>391</v>
@@ -5515,7 +5517,7 @@
         <v>203</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U77" s="1"/>
     </row>
@@ -5620,7 +5622,7 @@
         <v>188</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K80" s="13" t="s">
         <v>393</v>

--- a/data_processing_elements-NHS.xlsx
+++ b/data_processing_elements-NHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA4BCA-9431-4EBE-9081-F31DD6287889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E66CE4-4D35-4817-B88B-2B43258B617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -988,9 +988,6 @@
     <t>HbA1c</t>
   </si>
   <si>
-    <t>4 times a week is considered as dayly/almost daily</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -1616,6 +1613,9 @@
   <si>
     <t>case_when(is.na(BPDias1_NT4BLM) &amp; is.na(BPDias2_NT4BLM) &amp; is.na(BPDias3_NT4BLM) ~ NA;
 ELSE ~ round(rowMeans(select(., BPDias1_NT4BLM, BPDias2_NT4BLM, BPDias3_NT4BLM), na.rm=TRUE), 2))</t>
+  </si>
+  <si>
+    <t>4 times a week or more is considered as dayly/almost daily</t>
   </si>
 </sst>
 </file>
@@ -2095,10 +2095,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>21</v>
@@ -2211,10 +2211,10 @@
         <v>24</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P2" s="13" t="s">
         <v>25</v>
@@ -2223,13 +2223,13 @@
         <v>26</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>401</v>
-      </c>
       <c r="T2" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -2238,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>27</v>
@@ -2256,16 +2256,16 @@
         <v>31</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="N3" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>25</v>
@@ -2277,7 +2277,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>33</v>
@@ -2326,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>39</v>
@@ -2344,13 +2344,13 @@
         <v>42</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>25</v>
@@ -2362,7 +2362,7 @@
         <v>32</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -2371,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>44</v>
@@ -2389,16 +2389,16 @@
         <v>47</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>289</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>25</v>
@@ -2410,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -2420,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>49</v>
@@ -2459,7 +2459,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>54</v>
@@ -2477,13 +2477,13 @@
         <v>57</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K8" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>25</v>
@@ -2504,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>60</v>
@@ -2522,16 +2522,16 @@
         <v>63</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K9" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>25</v>
@@ -2552,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>64</v>
@@ -2589,7 +2589,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>68</v>
@@ -2604,16 +2604,16 @@
         <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>25</v>
@@ -2625,7 +2625,7 @@
         <v>203</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U11" s="1"/>
     </row>
@@ -2634,7 +2634,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>71</v>
@@ -2673,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>75</v>
@@ -2691,7 +2691,7 @@
         <v>78</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>290</v>
@@ -2700,7 +2700,7 @@
         <v>290</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>25</v>
@@ -2712,7 +2712,7 @@
         <v>38</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U13" s="1"/>
     </row>
@@ -2721,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>79</v>
@@ -2760,7 +2760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>83</v>
@@ -2778,13 +2778,13 @@
         <v>85</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>25</v>
@@ -2799,7 +2799,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U15" s="1"/>
     </row>
@@ -2808,7 +2808,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>86</v>
@@ -2826,7 +2826,7 @@
         <v>88</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>291</v>
@@ -2850,7 +2850,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>89</v>
@@ -2868,7 +2868,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>25</v>
@@ -2880,7 +2880,7 @@
         <v>32</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2890,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>92</v>
@@ -2908,10 +2908,10 @@
         <v>94</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P18" s="13" t="s">
         <v>25</v>
@@ -2932,7 +2932,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>95</v>
@@ -2950,7 +2950,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>25</v>
@@ -2962,7 +2962,7 @@
         <v>32</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2972,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>97</v>
@@ -2990,10 +2990,10 @@
         <v>99</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>25</v>
@@ -3014,7 +3014,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>100</v>
@@ -3032,10 +3032,10 @@
         <v>88</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>25</v>
@@ -3056,7 +3056,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>103</v>
@@ -3074,7 +3074,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P22" s="13" t="s">
         <v>25</v>
@@ -3086,7 +3086,7 @@
         <v>32</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -3096,7 +3096,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>105</v>
@@ -3114,13 +3114,13 @@
         <v>107</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="P23" s="13" t="s">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>108</v>
@@ -3156,13 +3156,13 @@
         <v>24</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="P24" s="13" t="s">
         <v>25</v>
@@ -3174,7 +3174,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U24" s="1"/>
     </row>
@@ -3183,7 +3183,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>110</v>
@@ -3201,13 +3201,13 @@
         <v>113</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="O25" s="13" t="s">
         <v>102</v>
@@ -3222,7 +3222,7 @@
         <v>203</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U25" s="1"/>
     </row>
@@ -3231,7 +3231,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>114</v>
@@ -3249,13 +3249,13 @@
         <v>113</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="O26" s="13" t="s">
         <v>102</v>
@@ -3270,7 +3270,7 @@
         <v>203</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U26" s="1"/>
     </row>
@@ -3279,7 +3279,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>117</v>
@@ -3297,16 +3297,16 @@
         <v>119</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K27" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="O27" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>25</v>
@@ -3327,7 +3327,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>120</v>
@@ -3366,7 +3366,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>123</v>
@@ -3384,16 +3384,16 @@
         <v>125</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K29" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>25</v>
@@ -3405,7 +3405,7 @@
         <v>38</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U29" s="1"/>
     </row>
@@ -3414,7 +3414,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>126</v>
@@ -3432,13 +3432,13 @@
         <v>128</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K30" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="N30" s="13" t="s">
         <v>128</v>
@@ -3462,7 +3462,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>129</v>
@@ -3480,10 +3480,10 @@
         <v>131</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L31" s="13" t="s">
         <v>292</v>
@@ -3510,7 +3510,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>132</v>
@@ -3528,13 +3528,13 @@
         <v>134</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K32" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="N32" s="13" t="s">
         <v>134</v>
@@ -3558,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>135</v>
@@ -3576,13 +3576,13 @@
         <v>134</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>134</v>
@@ -3606,7 +3606,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>137</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>139</v>
@@ -3663,13 +3663,13 @@
         <v>134</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K35" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>287</v>
@@ -3684,7 +3684,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U35" s="1"/>
     </row>
@@ -3693,7 +3693,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>141</v>
@@ -3711,13 +3711,13 @@
         <v>134</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K36" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="N36" s="13" t="s">
         <v>134</v>
@@ -3741,7 +3741,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>143</v>
@@ -3759,13 +3759,13 @@
         <v>145</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K37" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>146</v>
@@ -3789,7 +3789,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>147</v>
@@ -3801,7 +3801,7 @@
         <v>149</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>150</v>
@@ -3828,7 +3828,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>152</v>
@@ -3846,19 +3846,19 @@
         <v>155</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K39" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="O39" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>25</v>
@@ -3870,7 +3870,7 @@
         <v>38</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U39" s="1"/>
     </row>
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>156</v>
@@ -3891,7 +3891,7 @@
         <v>158</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>150</v>
@@ -3918,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>159</v>
@@ -3936,19 +3936,19 @@
         <v>155</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K41" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="M41" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>25</v>
@@ -3960,7 +3960,7 @@
         <v>38</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U41" s="1"/>
     </row>
@@ -3969,7 +3969,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>162</v>
@@ -4008,7 +4008,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>165</v>
@@ -4026,13 +4026,13 @@
         <v>168</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K43" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>168</v>
@@ -4056,7 +4056,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>169</v>
@@ -4074,19 +4074,19 @@
         <v>171</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K44" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="O44" s="1" t="s">
-        <v>293</v>
+        <v>461</v>
       </c>
       <c r="P44" s="13" t="s">
         <v>25</v>
@@ -4098,7 +4098,7 @@
         <v>38</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U44" s="1"/>
     </row>
@@ -4107,7 +4107,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>172</v>
@@ -4125,7 +4125,7 @@
         <v>175</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>174</v>
@@ -4134,7 +4134,7 @@
         <v>173</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>25</v>
@@ -4146,7 +4146,7 @@
         <v>38</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U45" s="1"/>
     </row>
@@ -4155,7 +4155,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>176</v>
@@ -4175,7 +4175,7 @@
         <v>178</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>174</v>
@@ -4184,7 +4184,7 @@
         <v>173</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
@@ -4197,7 +4197,7 @@
         <v>38</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U46" s="1"/>
     </row>
@@ -4206,7 +4206,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>179</v>
@@ -4224,19 +4224,19 @@
         <v>181</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K47" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="N47" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="O47" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="P47" s="13" t="s">
         <v>25</v>
@@ -4248,7 +4248,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U47" s="1"/>
     </row>
@@ -4257,7 +4257,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>182</v>
@@ -4275,16 +4275,16 @@
         <v>184</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K48" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>363</v>
       </c>
       <c r="P48" s="13" t="s">
         <v>25</v>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21" ht="186" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>185</v>
@@ -4323,19 +4323,19 @@
         <v>188</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K49" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="M49" s="14" t="s">
+      <c r="O49" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="P49" s="13" t="s">
         <v>25</v>
@@ -4347,16 +4347,16 @@
         <v>203</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>189</v>
@@ -4374,19 +4374,19 @@
         <v>188</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K50" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="O50" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="P50" s="13" t="s">
         <v>25</v>
@@ -4398,7 +4398,7 @@
         <v>203</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U50" s="1"/>
     </row>
@@ -4407,7 +4407,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>192</v>
@@ -4425,16 +4425,16 @@
         <v>188</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K51" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="M51" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P51" s="13" t="s">
         <v>25</v>
@@ -4455,7 +4455,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>194</v>
@@ -4494,7 +4494,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>197</v>
@@ -4512,16 +4512,16 @@
         <v>188</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K53" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="M53" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P53" s="13" t="s">
         <v>25</v>
@@ -4542,7 +4542,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>199</v>
@@ -4581,7 +4581,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>201</v>
@@ -4599,16 +4599,16 @@
         <v>188</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="M55" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P55" s="13" t="s">
         <v>25</v>
@@ -4629,7 +4629,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>204</v>
@@ -4647,16 +4647,16 @@
         <v>188</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="M56" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P56" s="13" t="s">
         <v>25</v>
@@ -4677,7 +4677,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>206</v>
@@ -4716,7 +4716,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>208</v>
@@ -4755,7 +4755,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>211</v>
@@ -4791,7 +4791,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>213</v>
@@ -4827,7 +4827,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>215</v>
@@ -4863,7 +4863,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>217</v>
@@ -4899,7 +4899,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>219</v>
@@ -4935,7 +4935,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>221</v>
@@ -4971,7 +4971,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>223</v>
@@ -5007,7 +5007,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>225</v>
@@ -5046,7 +5046,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>228</v>
@@ -5064,16 +5064,16 @@
         <v>230</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K67" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="O67" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="O67" s="13" t="s">
-        <v>381</v>
       </c>
       <c r="P67" s="13" t="s">
         <v>25</v>
@@ -5089,12 +5089,12 @@
       </c>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>231</v>
@@ -5112,13 +5112,13 @@
         <v>233</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K68" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="P68" s="13" t="s">
         <v>25</v>
@@ -5130,7 +5130,7 @@
         <v>203</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U68" s="1"/>
     </row>
@@ -5139,7 +5139,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>234</v>
@@ -5157,16 +5157,16 @@
         <v>236</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="P69" s="13" t="s">
         <v>58</v>
@@ -5187,7 +5187,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>237</v>
@@ -5205,16 +5205,16 @@
         <v>239</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="P70" s="13" t="s">
         <v>25</v>
@@ -5226,7 +5226,7 @@
         <v>38</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U70" s="1"/>
     </row>
@@ -5235,7 +5235,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>240</v>
@@ -5274,7 +5274,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>242</v>
@@ -5313,7 +5313,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>244</v>
@@ -5352,7 +5352,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>248</v>
@@ -5370,16 +5370,16 @@
         <v>251</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="M74" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P74" s="13" t="s">
         <v>25</v>
@@ -5391,7 +5391,7 @@
         <v>38</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U74" s="1"/>
     </row>
@@ -5400,7 +5400,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>252</v>
@@ -5439,7 +5439,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>256</v>
@@ -5457,13 +5457,13 @@
         <v>230</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K76" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="P76" s="13" t="s">
         <v>25</v>
@@ -5479,12 +5479,12 @@
       </c>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="114" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>259</v>
@@ -5502,10 +5502,10 @@
         <v>262</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P77" s="13" t="s">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         <v>203</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U77" s="1"/>
     </row>
@@ -5526,7 +5526,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>263</v>
@@ -5565,7 +5565,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>267</v>
@@ -5604,7 +5604,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>270</v>
@@ -5622,19 +5622,19 @@
         <v>188</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K80" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="M80" s="9" t="s">
+      <c r="O80" s="13" t="s">
         <v>395</v>
-      </c>
-      <c r="O80" s="13" t="s">
-        <v>396</v>
       </c>
       <c r="P80" s="13" t="s">
         <v>25</v>
@@ -5655,7 +5655,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>273</v>
@@ -5694,7 +5694,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>276</v>
@@ -5733,7 +5733,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>279</v>
@@ -5769,7 +5769,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>282</v>

--- a/data_processing_elements-NHS.xlsx
+++ b/data_processing_elements-NHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E66CE4-4D35-4817-B88B-2B43258B617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6109F512-E5BF-4861-A2C5-E556E9EC03C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -967,9 +967,6 @@
     <t>items</t>
   </si>
   <si>
-    <t>recode(1=0; 2=1; 3=1; 4=1; 5=1; ELSE=NA)</t>
-  </si>
-  <si>
     <t>Friedewald equation was used https://lipidworld.biomedcentral.com/articles/10.1186/1476-511X-9-27</t>
   </si>
   <si>
@@ -1616,6 +1613,9 @@
   </si>
   <si>
     <t>4 times a week or more is considered as dayly/almost daily</t>
+  </si>
+  <si>
+    <t>recode(1=1; 2=1; 3=1; 4=1; 5=0; ELSE=NA)</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1752,9 +1752,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1776,7 +1779,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2095,13 +2098,13 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="13" customWidth="1"/>
@@ -2196,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>21</v>
@@ -2211,10 +2214,10 @@
         <v>24</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P2" s="13" t="s">
         <v>25</v>
@@ -2223,13 +2226,13 @@
         <v>26</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>400</v>
-      </c>
       <c r="T2" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -2238,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>27</v>
@@ -2256,16 +2259,16 @@
         <v>31</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="N3" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>25</v>
@@ -2277,7 +2280,7 @@
         <v>32</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2287,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>33</v>
@@ -2326,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>39</v>
@@ -2344,13 +2347,13 @@
         <v>42</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>25</v>
@@ -2362,7 +2365,7 @@
         <v>32</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -2371,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>44</v>
@@ -2389,16 +2392,16 @@
         <v>47</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>25</v>
@@ -2410,7 +2413,7 @@
         <v>38</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -2420,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>49</v>
@@ -2459,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>54</v>
@@ -2477,13 +2480,13 @@
         <v>57</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K8" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>25</v>
@@ -2504,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>60</v>
@@ -2522,16 +2525,16 @@
         <v>63</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K9" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>25</v>
@@ -2543,7 +2546,7 @@
         <v>38</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U9" s="1"/>
     </row>
@@ -2552,7 +2555,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>64</v>
@@ -2589,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>68</v>
@@ -2604,16 +2607,16 @@
         <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>25</v>
@@ -2625,7 +2628,7 @@
         <v>203</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U11" s="1"/>
     </row>
@@ -2634,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>71</v>
@@ -2673,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>75</v>
@@ -2691,16 +2694,16 @@
         <v>78</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>25</v>
@@ -2712,7 +2715,7 @@
         <v>38</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U13" s="1"/>
     </row>
@@ -2721,7 +2724,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>79</v>
@@ -2760,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>83</v>
@@ -2778,13 +2781,13 @@
         <v>85</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>25</v>
@@ -2799,7 +2802,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U15" s="1"/>
     </row>
@@ -2808,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>86</v>
@@ -2826,10 +2829,10 @@
         <v>88</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P16" s="13" t="s">
         <v>25</v>
@@ -2850,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>89</v>
@@ -2868,7 +2871,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P17" s="13" t="s">
         <v>25</v>
@@ -2880,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2890,7 +2893,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>92</v>
@@ -2908,10 +2911,10 @@
         <v>94</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P18" s="13" t="s">
         <v>25</v>
@@ -2932,7 +2935,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>95</v>
@@ -2950,7 +2953,7 @@
         <v>91</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P19" s="13" t="s">
         <v>25</v>
@@ -2962,7 +2965,7 @@
         <v>32</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -2972,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>97</v>
@@ -2990,10 +2993,10 @@
         <v>99</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>25</v>
@@ -3014,7 +3017,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>100</v>
@@ -3032,10 +3035,10 @@
         <v>88</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P21" s="13" t="s">
         <v>25</v>
@@ -3056,7 +3059,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>103</v>
@@ -3074,7 +3077,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P22" s="13" t="s">
         <v>25</v>
@@ -3086,7 +3089,7 @@
         <v>32</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -3096,7 +3099,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>105</v>
@@ -3114,13 +3117,13 @@
         <v>107</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="P23" s="13" t="s">
         <v>25</v>
@@ -3141,7 +3144,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>108</v>
@@ -3156,13 +3159,13 @@
         <v>24</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="P24" s="13" t="s">
         <v>25</v>
@@ -3174,7 +3177,7 @@
         <v>32</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U24" s="1"/>
     </row>
@@ -3183,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>110</v>
@@ -3201,13 +3204,13 @@
         <v>113</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K25" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="O25" s="13" t="s">
         <v>102</v>
@@ -3222,7 +3225,7 @@
         <v>203</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U25" s="1"/>
     </row>
@@ -3231,7 +3234,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>114</v>
@@ -3249,13 +3252,13 @@
         <v>113</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K26" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="O26" s="13" t="s">
         <v>102</v>
@@ -3270,7 +3273,7 @@
         <v>203</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U26" s="1"/>
     </row>
@@ -3279,7 +3282,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>117</v>
@@ -3297,16 +3300,16 @@
         <v>119</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K27" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="O27" s="13" t="s">
         <v>321</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>322</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>25</v>
@@ -3327,7 +3330,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>120</v>
@@ -3366,7 +3369,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>123</v>
@@ -3384,16 +3387,16 @@
         <v>125</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K29" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>25</v>
@@ -3405,7 +3408,7 @@
         <v>38</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U29" s="1"/>
     </row>
@@ -3414,7 +3417,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>126</v>
@@ -3432,13 +3435,13 @@
         <v>128</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K30" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="N30" s="13" t="s">
         <v>128</v>
@@ -3462,7 +3465,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>129</v>
@@ -3480,13 +3483,13 @@
         <v>131</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>131</v>
@@ -3510,7 +3513,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>132</v>
@@ -3528,13 +3531,13 @@
         <v>134</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K32" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="N32" s="13" t="s">
         <v>134</v>
@@ -3558,7 +3561,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>135</v>
@@ -3576,13 +3579,13 @@
         <v>134</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>134</v>
@@ -3606,7 +3609,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>137</v>
@@ -3645,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>139</v>
@@ -3663,16 +3666,16 @@
         <v>134</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K35" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="O35" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P35" s="13" t="s">
         <v>25</v>
@@ -3684,7 +3687,7 @@
         <v>32</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U35" s="1"/>
     </row>
@@ -3693,7 +3696,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>141</v>
@@ -3711,13 +3714,13 @@
         <v>134</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K36" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="N36" s="13" t="s">
         <v>134</v>
@@ -3741,7 +3744,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>143</v>
@@ -3759,13 +3762,13 @@
         <v>145</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K37" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>146</v>
@@ -3789,7 +3792,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>147</v>
@@ -3828,7 +3831,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>152</v>
@@ -3846,19 +3849,19 @@
         <v>155</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K39" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="O39" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>25</v>
@@ -3870,7 +3873,7 @@
         <v>38</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U39" s="1"/>
     </row>
@@ -3879,7 +3882,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>156</v>
@@ -3918,7 +3921,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>159</v>
@@ -3936,19 +3939,19 @@
         <v>155</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K41" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="M41" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O41" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>25</v>
@@ -3960,7 +3963,7 @@
         <v>38</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U41" s="1"/>
     </row>
@@ -3969,7 +3972,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>162</v>
@@ -4008,7 +4011,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>165</v>
@@ -4026,13 +4029,13 @@
         <v>168</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K43" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>168</v>
@@ -4056,7 +4059,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>169</v>
@@ -4074,19 +4077,19 @@
         <v>171</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K44" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="O44" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P44" s="13" t="s">
         <v>25</v>
@@ -4098,7 +4101,7 @@
         <v>38</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U44" s="1"/>
     </row>
@@ -4107,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>172</v>
@@ -4125,7 +4128,7 @@
         <v>175</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>174</v>
@@ -4134,7 +4137,7 @@
         <v>173</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>25</v>
@@ -4146,7 +4149,7 @@
         <v>38</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U45" s="1"/>
     </row>
@@ -4155,7 +4158,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>176</v>
@@ -4175,7 +4178,7 @@
         <v>178</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>174</v>
@@ -4184,7 +4187,7 @@
         <v>173</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
@@ -4197,7 +4200,7 @@
         <v>38</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U46" s="1"/>
     </row>
@@ -4206,7 +4209,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>179</v>
@@ -4224,19 +4227,19 @@
         <v>181</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K47" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="N47" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="O47" s="13" t="s">
         <v>358</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>359</v>
       </c>
       <c r="P47" s="13" t="s">
         <v>25</v>
@@ -4248,7 +4251,7 @@
         <v>32</v>
       </c>
       <c r="S47" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U47" s="1"/>
     </row>
@@ -4257,7 +4260,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>182</v>
@@ -4275,16 +4278,16 @@
         <v>184</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K48" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="P48" s="13" t="s">
         <v>25</v>
@@ -4305,7 +4308,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>185</v>
@@ -4323,19 +4326,19 @@
         <v>188</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K49" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="M49" s="14" t="s">
+      <c r="O49" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="P49" s="13" t="s">
         <v>25</v>
@@ -4347,7 +4350,7 @@
         <v>203</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U49" s="1"/>
     </row>
@@ -4356,7 +4359,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>189</v>
@@ -4374,19 +4377,19 @@
         <v>188</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K50" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="O50" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="P50" s="13" t="s">
         <v>25</v>
@@ -4398,7 +4401,7 @@
         <v>203</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U50" s="1"/>
     </row>
@@ -4407,7 +4410,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>192</v>
@@ -4425,16 +4428,16 @@
         <v>188</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K51" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="M51" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P51" s="13" t="s">
         <v>25</v>
@@ -4455,7 +4458,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>194</v>
@@ -4494,7 +4497,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>197</v>
@@ -4512,16 +4515,16 @@
         <v>188</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K53" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="M53" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P53" s="13" t="s">
         <v>25</v>
@@ -4542,7 +4545,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>199</v>
@@ -4581,7 +4584,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>201</v>
@@ -4599,16 +4602,16 @@
         <v>188</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="M55" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P55" s="13" t="s">
         <v>25</v>
@@ -4629,7 +4632,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>204</v>
@@ -4647,16 +4650,16 @@
         <v>188</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="M56" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P56" s="13" t="s">
         <v>25</v>
@@ -4677,7 +4680,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>206</v>
@@ -4716,7 +4719,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>208</v>
@@ -4755,7 +4758,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>211</v>
@@ -4791,7 +4794,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>213</v>
@@ -4827,7 +4830,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>215</v>
@@ -4863,7 +4866,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>217</v>
@@ -4899,7 +4902,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>219</v>
@@ -4935,7 +4938,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>221</v>
@@ -4971,7 +4974,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>223</v>
@@ -5007,7 +5010,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>225</v>
@@ -5046,7 +5049,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>228</v>
@@ -5064,16 +5067,16 @@
         <v>230</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K67" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="O67" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="O67" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="P67" s="13" t="s">
         <v>25</v>
@@ -5094,7 +5097,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>231</v>
@@ -5112,13 +5115,13 @@
         <v>233</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K68" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="P68" s="13" t="s">
         <v>25</v>
@@ -5130,7 +5133,7 @@
         <v>203</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U68" s="1"/>
     </row>
@@ -5139,7 +5142,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>234</v>
@@ -5157,16 +5160,16 @@
         <v>236</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="P69" s="13" t="s">
         <v>58</v>
@@ -5187,7 +5190,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>237</v>
@@ -5205,16 +5208,16 @@
         <v>239</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="P70" s="13" t="s">
         <v>25</v>
@@ -5226,7 +5229,7 @@
         <v>38</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U70" s="1"/>
     </row>
@@ -5235,7 +5238,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>240</v>
@@ -5274,7 +5277,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>242</v>
@@ -5313,7 +5316,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>244</v>
@@ -5352,7 +5355,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>248</v>
@@ -5370,16 +5373,16 @@
         <v>251</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="M74" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P74" s="13" t="s">
         <v>25</v>
@@ -5391,7 +5394,7 @@
         <v>38</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U74" s="1"/>
     </row>
@@ -5400,7 +5403,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>252</v>
@@ -5439,7 +5442,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>256</v>
@@ -5457,13 +5460,13 @@
         <v>230</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K76" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="P76" s="13" t="s">
         <v>25</v>
@@ -5484,7 +5487,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>259</v>
@@ -5502,10 +5505,10 @@
         <v>262</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P77" s="13" t="s">
         <v>25</v>
@@ -5517,7 +5520,7 @@
         <v>203</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U77" s="1"/>
     </row>
@@ -5526,7 +5529,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>263</v>
@@ -5565,7 +5568,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>267</v>
@@ -5599,12 +5602,12 @@
       </c>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>270</v>
@@ -5622,19 +5625,19 @@
         <v>188</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K80" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="M80" s="9" t="s">
+      <c r="O80" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="O80" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="P80" s="13" t="s">
         <v>25</v>
@@ -5646,7 +5649,7 @@
         <v>38</v>
       </c>
       <c r="S80" s="13" t="s">
-        <v>286</v>
+        <v>461</v>
       </c>
       <c r="U80" s="1"/>
     </row>
@@ -5655,7 +5658,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>273</v>
@@ -5694,7 +5697,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>276</v>
@@ -5733,7 +5736,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>279</v>
@@ -5769,7 +5772,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>282</v>
